--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="32620" windowHeight="16060" tabRatio="500"/>
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$85</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="167">
   <si>
     <t>Reported By</t>
   </si>
@@ -533,13 +533,22 @@
     <t>Data source module generator writes map type attributes without empty valuemap tag. Causes PDTool to throw error claiming the data source does not have a name.</t>
   </si>
   <si>
-    <t>Need to modify data source serializer to include empty valueMap tag.</t>
-  </si>
-  <si>
     <t>Plan editor duplicates first row into new second row after dialog for second row is closed.</t>
   </si>
   <si>
     <t>Need to roll in May 28 enhancements to PDTool.</t>
+  </si>
+  <si>
+    <t>Plan editor check to see if module file has entries doesn't check to see if entry list is null</t>
+  </si>
+  <si>
+    <t>Added check</t>
+  </si>
+  <si>
+    <t>Rowid generator returned NaN if plan list had no entries.</t>
+  </si>
+  <si>
+    <t>Need to modify generic attribute serializer to include empty valueMap tag. (Tentatively fixed, need to test with a deployment.)</t>
   </si>
 </sst>
 </file>
@@ -989,11 +998,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3273,7 +3282,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" hidden="1">
       <c r="A62" s="3" t="s">
         <v>9</v>
       </c>
@@ -3290,7 +3299,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>35</v>
@@ -3299,7 +3308,7 @@
         <v>18</v>
       </c>
       <c r="J62" s="7">
-        <v>41690</v>
+        <v>41802</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>9</v>
@@ -3956,7 +3965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="3" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>40</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>158</v>
@@ -3982,13 +3991,16 @@
         <v>18</v>
       </c>
       <c r="J81" s="7">
-        <v>41787</v>
+        <v>41802</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="30">
@@ -4061,7 +4073,7 @@
         <v>160</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4096,11 +4108,49 @@
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" hidden="1">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="7">
+        <v>41802</v>
+      </c>
+      <c r="C85" s="3">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3">
+        <v>4</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="7">
+        <v>41802</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="M85" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:I80">
+  <autoFilter ref="E1:I85">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$84</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="166">
   <si>
     <t>Reported By</t>
   </si>
@@ -368,10 +368,6 @@
     <t>buttonset refreshes not refreshing the correct ID's</t>
   </si>
   <si>
-    <t>Need to ship with default set of server attributes for 6.2. When user changes default server, GUI should regenerate attributes based on new default server.
-Need key event listener to update typeahead list as / chars are entered.</t>
-  </si>
-  <si>
     <t>Mike T is adding feature to let useHttps override encrypt in PDTool. Lowering priority.</t>
   </si>
   <si>
@@ -509,9 +505,6 @@
     <t>Server editor panel should have "test connection" button</t>
   </si>
   <si>
-    <t>Need to call Admin API SOAP service such as getLicenses</t>
-  </si>
-  <si>
     <t>VCS module generator needs to have vcs connection entry in target module XML file</t>
   </si>
   <si>
@@ -527,18 +520,12 @@
     <t>b2</t>
   </si>
   <si>
-    <t>Plan editor ID lookup needs to interpolate variables in module path by applying default profile variable values.</t>
-  </si>
-  <si>
     <t>Data source module generator writes map type attributes without empty valuemap tag. Causes PDTool to throw error claiming the data source does not have a name.</t>
   </si>
   <si>
     <t>Plan editor duplicates first row into new second row after dialog for second row is closed.</t>
   </si>
   <si>
-    <t>Need to roll in May 28 enhancements to PDTool.</t>
-  </si>
-  <si>
     <t>Plan editor check to see if module file has entries doesn't check to see if entry list is null</t>
   </si>
   <si>
@@ -548,7 +535,18 @@
     <t>Rowid generator returned NaN if plan list had no entries.</t>
   </si>
   <si>
-    <t>Need to modify generic attribute serializer to include empty valueMap tag. (Tentatively fixed, need to test with a deployment.)</t>
+    <t>Needed to modify generic attribute serializer to include empty valueMap tag.</t>
+  </si>
+  <si>
+    <t>Need to call Admin API SOAP service such as getLicenses from GUI server.</t>
+  </si>
+  <si>
+    <t>Need to ship with default set of server attributes for 6.2. When user changes default server, GUI should regenerate attributes based on new default server.
+Need key event listener to update typeahead list as / chars are entered.
+Need tree-based chooser dialog</t>
+  </si>
+  <si>
+    <t>NPE thrown when plan editor attempts to interpolate unset variable in module path</t>
   </si>
 </sst>
 </file>
@@ -605,8 +603,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -649,7 +649,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -659,6 +659,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -668,6 +669,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -998,11 +1000,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1110,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -1142,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -1177,7 +1179,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
@@ -1222,7 +1224,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1277,7 +1279,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -1318,7 +1320,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
@@ -1356,7 +1358,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
@@ -1397,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>18</v>
@@ -1435,7 +1437,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -1473,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
@@ -1587,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -1622,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -1701,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
@@ -1777,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -1850,7 +1852,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>17</v>
@@ -1891,7 +1893,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -1938,7 +1940,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:13" hidden="1">
@@ -1961,7 +1963,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -1973,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>63</v>
@@ -2014,7 +2016,7 @@
         <v>64</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30">
@@ -2075,7 +2077,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
@@ -2093,7 +2095,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="90">
+    <row r="30" spans="1:13" ht="120">
       <c r="A30" s="3" t="s">
         <v>9</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>69</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2186,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
@@ -2224,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -2259,7 +2261,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
@@ -2297,7 +2299,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
@@ -2332,7 +2334,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
@@ -2408,7 +2410,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -2446,7 +2448,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -2502,7 +2504,7 @@
         <v>83</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" hidden="1">
@@ -2525,7 +2527,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -2563,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -2598,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>18</v>
@@ -2636,7 +2638,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>18</v>
@@ -2674,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -2762,7 +2764,7 @@
         <v>101</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1">
@@ -2785,7 +2787,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
@@ -2820,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -2858,7 +2860,7 @@
         <v>20</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>17</v>
@@ -2899,7 +2901,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>17</v>
@@ -2940,7 +2942,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
@@ -2987,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" hidden="1">
@@ -3010,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>17</v>
@@ -3025,15 +3027,15 @@
         <v>9</v>
       </c>
       <c r="L54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" s="7">
         <v>41677</v>
@@ -3063,15 +3065,15 @@
         <v>9</v>
       </c>
       <c r="L55" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" s="7">
         <v>41677</v>
@@ -3101,12 +3103,12 @@
         <v>9</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" hidden="1">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B57" s="7">
         <v>41677</v>
@@ -3124,7 +3126,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
@@ -3136,15 +3138,15 @@
         <v>9</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="7">
         <v>41677</v>
@@ -3174,12 +3176,12 @@
         <v>9</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="7">
         <v>41677</v>
@@ -3209,7 +3211,7 @@
         <v>9</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:13" hidden="1">
@@ -3232,7 +3234,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -3244,12 +3246,12 @@
         <v>9</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" s="7">
         <v>41687</v>
@@ -3267,7 +3269,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -3279,7 +3281,7 @@
         <v>9</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:13" hidden="1">
@@ -3314,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3349,7 +3351,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:13" hidden="1">
@@ -3372,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
@@ -3384,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:13" hidden="1">
@@ -3407,7 +3409,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
@@ -3419,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:13" hidden="1">
@@ -3442,7 +3444,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
@@ -3454,7 +3456,7 @@
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:13" hidden="1">
@@ -3477,7 +3479,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
@@ -3489,7 +3491,7 @@
         <v>9</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:13" hidden="1">
@@ -3524,7 +3526,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:13" hidden="1">
@@ -3559,10 +3561,10 @@
         <v>9</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" hidden="1">
@@ -3597,10 +3599,10 @@
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="135">
@@ -3635,10 +3637,10 @@
         <v>9</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:13" hidden="1">
@@ -3661,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>18</v>
@@ -3673,7 +3675,7 @@
         <v>9</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:13" hidden="1">
@@ -3696,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>18</v>
@@ -3708,7 +3710,7 @@
         <v>9</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:13" hidden="1">
@@ -3731,7 +3733,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>18</v>
@@ -3743,7 +3745,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1">
@@ -3766,7 +3768,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>18</v>
@@ -3778,7 +3780,7 @@
         <v>9</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="75" hidden="1">
@@ -3801,7 +3803,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>17</v>
@@ -3813,15 +3815,15 @@
         <v>9</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M76" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="30">
+      <c r="A77" s="3" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="B77" s="7">
         <v>41752</v>
@@ -3851,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1">
@@ -3877,7 +3879,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>18</v>
@@ -3889,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -3924,7 +3926,7 @@
         <v>9</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="30">
@@ -3941,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>18</v>
@@ -3959,10 +3961,10 @@
         <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:13" hidden="1">
@@ -3985,7 +3987,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>18</v>
@@ -3997,18 +3999,18 @@
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="30">
+    </row>
+    <row r="82" spans="1:13" ht="30" hidden="1">
       <c r="A82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="7">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -4017,140 +4019,105 @@
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="7">
-        <v>41787</v>
+        <v>41808</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="30">
+        <v>157</v>
+      </c>
+      <c r="M82" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="7">
-        <v>41788</v>
+        <v>41802</v>
       </c>
       <c r="C83" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="7">
-        <v>41788</v>
+        <v>41802</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M83" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+    </row>
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B84" s="7">
-        <v>41788</v>
+        <v>41808</v>
       </c>
       <c r="C84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="7">
-        <v>41788</v>
+        <v>41808</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" hidden="1">
-      <c r="A85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="7">
-        <v>41802</v>
-      </c>
-      <c r="C85" s="3">
-        <v>4</v>
-      </c>
-      <c r="D85" s="3">
-        <v>4</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J85" s="7">
-        <v>41802</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L85" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:I85">
+  <autoFilter ref="E1:I84">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32620" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32620" windowHeight="18720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$83</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="165">
   <si>
     <t>Reported By</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>VCS module generator needs to have vcs connection entry in target module XML file</t>
-  </si>
-  <si>
-    <t>Plan editor for v2 of VCS module methods needs select list for VCS connection ID</t>
   </si>
   <si>
     <t>Plan editor for v2 of VCS module methods needs password field for vcsPassword argument.</t>
@@ -1000,11 +997,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2130,7 +2127,7 @@
         <v>69</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3161,16 +3158,16 @@
         <v>11</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="7">
-        <v>41677</v>
+        <v>41808</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>9</v>
@@ -3856,7 +3853,7 @@
         <v>151</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1">
@@ -3894,7 +3891,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" ht="30">
       <c r="A79" s="3" t="s">
         <v>9</v>
       </c>
@@ -3902,10 +3899,10 @@
         <v>41753</v>
       </c>
       <c r="C79" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>11</v>
@@ -3928,13 +3925,16 @@
       <c r="L79" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="30">
+      <c r="M79" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="7">
-        <v>41753</v>
+        <v>41787</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -3943,36 +3943,36 @@
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J80" s="7">
-        <v>41753</v>
+        <v>41802</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" hidden="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="30" hidden="1">
       <c r="A81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B81" s="7">
-        <v>41787</v>
+        <v>41788</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -3987,36 +3987,36 @@
         <v>20</v>
       </c>
       <c r="G81" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="7">
+        <v>41808</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J81" s="7">
-        <v>41802</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L81" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30" hidden="1">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B82" s="7">
-        <v>41788</v>
+        <v>41802</v>
       </c>
       <c r="C82" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>40</v>
@@ -4025,22 +4025,22 @@
         <v>20</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="7">
-        <v>41808</v>
+        <v>41802</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:13" hidden="1">
@@ -4048,13 +4048,13 @@
         <v>9</v>
       </c>
       <c r="B83" s="7">
-        <v>41802</v>
+        <v>41808</v>
       </c>
       <c r="C83" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>40</v>
@@ -4063,61 +4063,23 @@
         <v>20</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J83" s="7">
-        <v>41802</v>
+        <v>41808</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" hidden="1">
-      <c r="A84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="7">
-        <v>41808</v>
-      </c>
-      <c r="C84" s="3">
-        <v>3</v>
-      </c>
-      <c r="D84" s="3">
-        <v>3</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="7">
-        <v>41808</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:I84">
+  <autoFilter ref="E1:I83">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$84</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="168">
   <si>
     <t>Reported By</t>
   </si>
@@ -535,15 +535,24 @@
     <t>Needed to modify generic attribute serializer to include empty valueMap tag.</t>
   </si>
   <si>
-    <t>Need to call Admin API SOAP service such as getLicenses from GUI server.</t>
-  </si>
-  <si>
     <t>Need to ship with default set of server attributes for 6.2. When user changes default server, GUI should regenerate attributes based on new default server.
 Need key event listener to update typeahead list as / chars are entered.
 Need tree-based chooser dialog</t>
   </si>
   <si>
     <t>NPE thrown when plan editor attempts to interpolate unset variable in module path</t>
+  </si>
+  <si>
+    <t>New privilege editor does not set default setting for "update dependencies" field.</t>
+  </si>
+  <si>
+    <t>Apply copyright notices to all java source, HTML, and internal XML files.</t>
+  </si>
+  <si>
+    <t>Have checked into personal Git repository. Need to integrate into PDTool repository proper.</t>
+  </si>
+  <si>
+    <t>Need GUI server to call Admin API SOAP service such as getLicenses. Not trivial.</t>
   </si>
 </sst>
 </file>
@@ -997,11 +1006,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2127,7 +2136,7 @@
         <v>69</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3141,7 +3150,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
@@ -3316,7 +3325,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" ht="30">
       <c r="A63" s="3" t="s">
         <v>9</v>
       </c>
@@ -3349,6 +3358,9 @@
       </c>
       <c r="L63" s="4" t="s">
         <v>146</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:13" hidden="1">
@@ -3853,7 +3865,7 @@
         <v>151</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1">
@@ -4075,11 +4087,81 @@
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="7">
+        <v>41821</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" s="7">
+        <v>41821</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>164</v>
       </c>
     </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="7">
+        <v>41821</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="7">
+        <v>41821</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:I83">
+  <autoFilter ref="E1:I84">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32620" windowHeight="18720" tabRatio="500"/>
+    <workbookView xWindow="5640" yWindow="720" windowWidth="32620" windowHeight="18720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$87</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="170">
   <si>
     <t>Reported By</t>
   </si>
@@ -553,6 +553,12 @@
   </si>
   <si>
     <t>Need GUI server to call Admin API SOAP service such as getLicenses. Not trivial.</t>
+  </si>
+  <si>
+    <t>Apply updates for PDTool releases 5/28, 6/13, and 6/30</t>
+  </si>
+  <si>
+    <t>Execution plan editor shouldn't have default "server" parameter. Not all methods (vcs init) don't have server as a parameter and shouldn't output one.</t>
   </si>
 </sst>
 </file>
@@ -1006,11 +1012,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4090,7 +4096,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="3" t="s">
         <v>9</v>
       </c>
@@ -4107,7 +4113,7 @@
         <v>40</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>155</v>
@@ -4125,7 +4131,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="3" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>11</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>155</v>
@@ -4160,8 +4166,78 @@
         <v>165</v>
       </c>
     </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="7">
+        <v>41822</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" s="7">
+        <v>41822</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="30" hidden="1">
+      <c r="A87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="7">
+        <v>41841</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" s="7">
+        <v>41841</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:I84">
+  <autoFilter ref="E1:I87">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$93</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="179">
   <si>
     <t>Reported By</t>
   </si>
@@ -274,291 +274,318 @@
     <t>When writing execution plan steps to file, substitute hard coded paths with $PROJECT_HOME, $MODULE_HOME, etc.</t>
   </si>
   <si>
+    <t>Archive module editor not setting includeDependencies correctly</t>
+  </si>
+  <si>
+    <t>IE10</t>
+  </si>
+  <si>
+    <t>Calls to log service returning log rows that it previously returned.</t>
+  </si>
+  <si>
+    <t>parser was setting includeDependencies with another property's value.</t>
+  </si>
+  <si>
+    <t>Plan editor writing wrong step to plan list.</t>
+  </si>
+  <si>
+    <t>Opening introspect data source types or changing data source types on introspect data sources impropery switches data source type to relational/generic from introspect.</t>
+  </si>
+  <si>
+    <t>Updated code to only change type when starting type is relational or generic.</t>
+  </si>
+  <si>
+    <t>Introspect sub types really need select list</t>
+  </si>
+  <si>
+    <t>Rebind plan step editor doesn't autocomplete module path</t>
+  </si>
+  <si>
+    <t>Removing support for vcsLabel for now. Not sure if it's being used but none of mtinius' shipped DP's use it.
+Should create separate method entry for overloaded version. Parsing the difference will be interesting (count args? Position of servers.xml?)</t>
+  </si>
+  <si>
+    <t>module xml fields used "Xml" instead of "XML" in field name. AC code generator didn't catch case difference.</t>
+  </si>
+  <si>
+    <t>Add dialog wasn't resetting the hidden "id" field and reusing it when writing back to the list. Add code was also performing update plan step unnecessarily. Also streamlined add/edit code.</t>
+  </si>
+  <si>
+    <t>Archive module set attributes is not updating resource types.</t>
+  </si>
+  <si>
+    <t>UI was returning "resourcetype" in the JSON instead of "resourceType".</t>
+  </si>
+  <si>
+    <t>PDTool does not support encrypting set attribute passwords currently. Setting up password fields for password attributes and setting event listener on attribute name to trigger switch between plain text and password value fields.
+When encryption support is added, the back end code can be updated to encrypt the password attributes without having to update the UI.</t>
+  </si>
+  <si>
+    <t>Preserve method parameter values when switching methods in dep plan editor.</t>
+  </si>
+  <si>
+    <t>capture previous values before wiping and re-populating parameters. Repopulate values where parameter names overlap.</t>
+  </si>
+  <si>
+    <t>Add variables ($PROJECT_HOME, custom vars, etc.) to typeahead menus.</t>
+  </si>
+  <si>
+    <t>Privilege module entries not serializing correctly.</t>
+  </si>
+  <si>
+    <t>Need to go through all dep plan files and update module file names. Need to update prefs file for dep profile file.
+Needs input field that accepts file paths relative to appropriate file folder.</t>
+  </si>
+  <si>
+    <t>Archive module editor should get useHttps setting from default server when setting "encrypt" switch for new module entries. Should raise a setting mismatch alert when useHttps and encrypt don't match.</t>
+  </si>
+  <si>
+    <t>Data source module editor doesn't report or set subtype correctly.</t>
+  </si>
+  <si>
+    <t>setResourceSubTypeSelectData() was not setting value field with correct subtype attribute.</t>
+  </si>
+  <si>
+    <t>Trigger module editor doesn't retrieve trigger action properly.</t>
+  </si>
+  <si>
+    <t>Didn't have url randomizer on list click event handler.</t>
+  </si>
+  <si>
+    <t>Trigger module editor not setting boolean action flags in dialog</t>
+  </si>
+  <si>
+    <t>Trigger module serializer writes out noCommit flag instead of includeSummary for email action elements.</t>
+  </si>
+  <si>
+    <t>buttonset refreshes not refreshing the correct ID's</t>
+  </si>
+  <si>
+    <t>Mike T is adding feature to let useHttps override encrypt in PDTool. Lowering priority.</t>
+  </si>
+  <si>
+    <t>Rewrite deployment plan parser/serializer to use array of parameters instead of individual parameter attributes.</t>
+  </si>
+  <si>
+    <t>Picking up sizes from jqList widget may be tricky. Need to investigate further.</t>
+  </si>
+  <si>
+    <t>Rewrite servers, plans DAO to use same parsing/serialization mechanism as modules' DAO's (get rid of in-memory crap from servers too.)</t>
+  </si>
+  <si>
+    <t>Seems to happen when Mac/Windows is swapping memory a lot.
+Happens rarely.
+Seems like the last retrieved line value isn't getting updated properly.</t>
+  </si>
+  <si>
+    <t>VCS module editor does not populate dialog with original VCS ID.</t>
+  </si>
+  <si>
+    <t>operation and origId fields were outside &lt;form&gt; tag. IE wasn't picking them up as form elements.</t>
+  </si>
+  <si>
+    <t>User can view log on logs screen under execute tab to get full log. PDTool execution continues even though server has thrown an error.
+Occurs intermittently. &gt;:(
+May still have an issue with co-modification of the log buffer hash.
+Made update to only do garbage collection after an execution completes.</t>
+  </si>
+  <si>
+    <t>mtinius</t>
+  </si>
+  <si>
+    <t>Add file browser to file input fields.</t>
+  </si>
+  <si>
+    <t>Use native browser widget. Only on localhost.</t>
+  </si>
+  <si>
+    <t>VCS init status needs to look for common executable suffixes (.exe, .bat, .cmd)</t>
+  </si>
+  <si>
+    <t>VCS init "check status" button has "initialize vcs" tooltip</t>
+  </si>
+  <si>
+    <t>Execute logs should include execution plan in name.</t>
+  </si>
+  <si>
+    <t>At end of execution, summary.log should be inserted at top of execution log file.</t>
+  </si>
+  <si>
+    <t>Need to move development into Eclipse</t>
+  </si>
+  <si>
+    <t>Buttons were using page title as tooltips. Fixed using title attribute in &lt;input&gt; tag.</t>
+  </si>
+  <si>
+    <t>Data source type is not getting set on existing data sources.</t>
+  </si>
+  <si>
+    <t>Data source array, list, and map editors need password and boolean fields.</t>
+  </si>
+  <si>
+    <t>Server attributes dialog doesn't set event handler for set button on array types properly.</t>
+  </si>
+  <si>
+    <t>Server attributes dialog doesn't display list or map attribute boolean value field.</t>
+  </si>
+  <si>
+    <t>Need to update header logo</t>
+  </si>
+  <si>
+    <t>Resource cache editor doesn't pull in multiple cache storage targets correctly.</t>
+  </si>
+  <si>
+    <t>Trigger editor should have CSV editing assist similar to regression editor</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>When plan method changes, old args don't get cleared from plan list.</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>This is a bug in the PDTool resource cache module generator.</t>
+  </si>
+  <si>
+    <t>Array, list, and map set value buttons in server attribute and data source scroll to top of form instead of opening ALM dialogs when attribute list is long and set button is "below the fold".</t>
+  </si>
+  <si>
+    <t>Execute should examine all module XML files and update their namespaces to cisco namespace.</t>
+  </si>
+  <si>
+    <t>Update privileges module editor for new features of 3/12.</t>
+  </si>
+  <si>
+    <t>Add new security test features of regression module for 3/12</t>
+  </si>
+  <si>
+    <t>Update VCS module editor for new features of 3/12.</t>
+  </si>
+  <si>
+    <t>Update profile editor for new features of 3/12.</t>
+  </si>
+  <si>
+    <t>Add TFS 2012, 2013 options to VCS module editor and deploy config editor</t>
+  </si>
+  <si>
+    <t>CSV editing dialogs removed from regression editor due to button issues.</t>
+  </si>
+  <si>
+    <t>Need to check source code into PDTool source control (Github)</t>
+  </si>
+  <si>
+    <t>Updates to deployment config not getting written to file.</t>
+  </si>
+  <si>
+    <t>Tried various forms of stopping event propagation. Can't seem to identify what is causing the scrolling and preventing the dialog opening.
+Replaced &lt;button&gt; elements with &lt;div&gt;'s and this seems to alleviate the issue in Firefox (page still scrolls, but at least the event handler is getting called), but IE still has issues.
+New Firebug features may help with this.</t>
+  </si>
+  <si>
+    <t>DP config DAO was using absolute path to templates folder. Now uses absolute path.
+Also fixed issue with dep config page not propagating error messages back to user.</t>
+  </si>
+  <si>
+    <t>kevobrie</t>
+  </si>
+  <si>
+    <t>Server editor panel should have "test connection" button</t>
+  </si>
+  <si>
+    <t>VCS module generator needs to have vcs connection entry in target module XML file</t>
+  </si>
+  <si>
+    <t>Plan editor for v2 of VCS module methods needs password field for vcsPassword argument.</t>
+  </si>
+  <si>
+    <t>Not sure how to implement this because entire plan table is written back to server every time a change to a plan step is made.</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>Data source module generator writes map type attributes without empty valuemap tag. Causes PDTool to throw error claiming the data source does not have a name.</t>
+  </si>
+  <si>
+    <t>Plan editor duplicates first row into new second row after dialog for second row is closed.</t>
+  </si>
+  <si>
+    <t>Plan editor check to see if module file has entries doesn't check to see if entry list is null</t>
+  </si>
+  <si>
+    <t>Added check</t>
+  </si>
+  <si>
+    <t>Rowid generator returned NaN if plan list had no entries.</t>
+  </si>
+  <si>
+    <t>Needed to modify generic attribute serializer to include empty valueMap tag.</t>
+  </si>
+  <si>
+    <t>Need to ship with default set of server attributes for 6.2. When user changes default server, GUI should regenerate attributes based on new default server.
+Need key event listener to update typeahead list as / chars are entered.
+Need tree-based chooser dialog</t>
+  </si>
+  <si>
+    <t>NPE thrown when plan editor attempts to interpolate unset variable in module path</t>
+  </si>
+  <si>
+    <t>New privilege editor does not set default setting for "update dependencies" field.</t>
+  </si>
+  <si>
+    <t>Apply copyright notices to all java source, HTML, and internal XML files.</t>
+  </si>
+  <si>
+    <t>Have checked into personal Git repository. Need to integrate into PDTool repository proper.</t>
+  </si>
+  <si>
+    <t>Need GUI server to call Admin API SOAP service such as getLicenses. Not trivial.</t>
+  </si>
+  <si>
+    <t>Apply updates for PDTool releases 5/28, 6/13, and 6/30</t>
+  </si>
+  <si>
+    <t>Execution plan editor shouldn't have default "server" parameter. Not all methods (vcs init) don't have server as a parameter and shouldn't output one.</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>Delete and rename of files doesn't delete file because java has the file open.</t>
+  </si>
+  <si>
+    <t>Deploy properties editor writes VCS base type into VCS type.</t>
+  </si>
+  <si>
+    <t>Deploy plan serializer doesn't write out server.xml argument</t>
+  </si>
+  <si>
+    <t>VCS module editor for connection puts "Encrypted:" in password field when field is not initially populated.</t>
+  </si>
+  <si>
+    <t>Plan editor does not have default setting for true/false radio</t>
+  </si>
+  <si>
+    <t>Plan editor does not put true/false argument of createFolder on end of arg list</t>
+  </si>
+  <si>
     <t>Variables to replace with:
 $PROJECT_HOME
 $MODULE_HOME
 others? / all variables?
-Not sure if this really should be done since it won't appear to the user that it's happening until the user refreshes the plan screen.</t>
-  </si>
-  <si>
-    <t>Archive module editor not setting includeDependencies correctly</t>
-  </si>
-  <si>
-    <t>IE10</t>
-  </si>
-  <si>
-    <t>Calls to log service returning log rows that it previously returned.</t>
-  </si>
-  <si>
-    <t>parser was setting includeDependencies with another property's value.</t>
-  </si>
-  <si>
-    <t>Plan editor writing wrong step to plan list.</t>
-  </si>
-  <si>
-    <t>Opening introspect data source types or changing data source types on introspect data sources impropery switches data source type to relational/generic from introspect.</t>
-  </si>
-  <si>
-    <t>Updated code to only change type when starting type is relational or generic.</t>
-  </si>
-  <si>
-    <t>Introspect sub types really need select list</t>
-  </si>
-  <si>
-    <t>Rebind plan step editor doesn't autocomplete module path</t>
-  </si>
-  <si>
-    <t>Removing support for vcsLabel for now. Not sure if it's being used but none of mtinius' shipped DP's use it.
-Should create separate method entry for overloaded version. Parsing the difference will be interesting (count args? Position of servers.xml?)</t>
-  </si>
-  <si>
-    <t>module xml fields used "Xml" instead of "XML" in field name. AC code generator didn't catch case difference.</t>
-  </si>
-  <si>
-    <t>Add dialog wasn't resetting the hidden "id" field and reusing it when writing back to the list. Add code was also performing update plan step unnecessarily. Also streamlined add/edit code.</t>
-  </si>
-  <si>
-    <t>Archive module set attributes is not updating resource types.</t>
-  </si>
-  <si>
-    <t>UI was returning "resourcetype" in the JSON instead of "resourceType".</t>
-  </si>
-  <si>
-    <t>PDTool does not support encrypting set attribute passwords currently. Setting up password fields for password attributes and setting event listener on attribute name to trigger switch between plain text and password value fields.
-When encryption support is added, the back end code can be updated to encrypt the password attributes without having to update the UI.</t>
-  </si>
-  <si>
-    <t>Preserve method parameter values when switching methods in dep plan editor.</t>
-  </si>
-  <si>
-    <t>capture previous values before wiping and re-populating parameters. Repopulate values where parameter names overlap.</t>
-  </si>
-  <si>
-    <t>Add variables ($PROJECT_HOME, custom vars, etc.) to typeahead menus.</t>
-  </si>
-  <si>
-    <t>Privilege module entries not serializing correctly.</t>
-  </si>
-  <si>
-    <t>Need to go through all dep plan files and update module file names. Need to update prefs file for dep profile file.
-Needs input field that accepts file paths relative to appropriate file folder.</t>
-  </si>
-  <si>
-    <t>Archive module editor should get useHttps setting from default server when setting "encrypt" switch for new module entries. Should raise a setting mismatch alert when useHttps and encrypt don't match.</t>
-  </si>
-  <si>
-    <t>Data source module editor doesn't report or set subtype correctly.</t>
-  </si>
-  <si>
-    <t>setResourceSubTypeSelectData() was not setting value field with correct subtype attribute.</t>
-  </si>
-  <si>
-    <t>Trigger module editor doesn't retrieve trigger action properly.</t>
-  </si>
-  <si>
-    <t>Didn't have url randomizer on list click event handler.</t>
-  </si>
-  <si>
-    <t>Trigger module editor not setting boolean action flags in dialog</t>
-  </si>
-  <si>
-    <t>Trigger module serializer writes out noCommit flag instead of includeSummary for email action elements.</t>
-  </si>
-  <si>
-    <t>buttonset refreshes not refreshing the correct ID's</t>
-  </si>
-  <si>
-    <t>Mike T is adding feature to let useHttps override encrypt in PDTool. Lowering priority.</t>
-  </si>
-  <si>
-    <t>Rewrite deployment plan parser/serializer to use array of parameters instead of individual parameter attributes.</t>
-  </si>
-  <si>
-    <t>Picking up sizes from jqList widget may be tricky. Need to investigate further.</t>
-  </si>
-  <si>
-    <t>Rewrite servers, plans DAO to use same parsing/serialization mechanism as modules' DAO's (get rid of in-memory crap from servers too.)</t>
-  </si>
-  <si>
-    <t>Seems to happen when Mac/Windows is swapping memory a lot.
-Happens rarely.
-Seems like the last retrieved line value isn't getting updated properly.</t>
-  </si>
-  <si>
-    <t>VCS module editor does not populate dialog with original VCS ID.</t>
-  </si>
-  <si>
-    <t>operation and origId fields were outside &lt;form&gt; tag. IE wasn't picking them up as form elements.</t>
-  </si>
-  <si>
-    <t>User can view log on logs screen under execute tab to get full log. PDTool execution continues even though server has thrown an error.
-Occurs intermittently. &gt;:(
-May still have an issue with co-modification of the log buffer hash.
-Made update to only do garbage collection after an execution completes.</t>
-  </si>
-  <si>
-    <t>mtinius</t>
-  </si>
-  <si>
-    <t>Add file browser to file input fields.</t>
-  </si>
-  <si>
-    <t>Use native browser widget. Only on localhost.</t>
-  </si>
-  <si>
-    <t>VCS init status needs to look for common executable suffixes (.exe, .bat, .cmd)</t>
-  </si>
-  <si>
-    <t>VCS init "check status" button has "initialize vcs" tooltip</t>
-  </si>
-  <si>
-    <t>Execute logs should include execution plan in name.</t>
-  </si>
-  <si>
-    <t>At end of execution, summary.log should be inserted at top of execution log file.</t>
-  </si>
-  <si>
-    <t>Need to move development into Eclipse</t>
-  </si>
-  <si>
-    <t>Buttons were using page title as tooltips. Fixed using title attribute in &lt;input&gt; tag.</t>
-  </si>
-  <si>
-    <t>Data source type is not getting set on existing data sources.</t>
-  </si>
-  <si>
-    <t>Data source array, list, and map editors need password and boolean fields.</t>
-  </si>
-  <si>
-    <t>Server attributes dialog doesn't set event handler for set button on array types properly.</t>
-  </si>
-  <si>
-    <t>Server attributes dialog doesn't display list or map attribute boolean value field.</t>
-  </si>
-  <si>
-    <t>Need to update header logo</t>
-  </si>
-  <si>
-    <t>Resource cache editor doesn't pull in multiple cache storage targets correctly.</t>
-  </si>
-  <si>
-    <t>Trigger editor should have CSV editing assist similar to regression editor</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>When plan method changes, old args don't get cleared from plan list.</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>This is a bug in the PDTool resource cache module generator.</t>
-  </si>
-  <si>
-    <t>Array, list, and map set value buttons in server attribute and data source scroll to top of form instead of opening ALM dialogs when attribute list is long and set button is "below the fold".</t>
-  </si>
-  <si>
-    <t>Execute should examine all module XML files and update their namespaces to cisco namespace.</t>
-  </si>
-  <si>
-    <t>Update privileges module editor for new features of 3/12.</t>
-  </si>
-  <si>
-    <t>Add new security test features of regression module for 3/12</t>
-  </si>
-  <si>
-    <t>Update VCS module editor for new features of 3/12.</t>
-  </si>
-  <si>
-    <t>Update profile editor for new features of 3/12.</t>
-  </si>
-  <si>
-    <t>Add TFS 2012, 2013 options to VCS module editor and deploy config editor</t>
-  </si>
-  <si>
-    <t>CSV editing dialogs removed from regression editor due to button issues.</t>
-  </si>
-  <si>
-    <t>Need to check source code into PDTool source control (Github)</t>
-  </si>
-  <si>
-    <t>Updates to deployment config not getting written to file.</t>
-  </si>
-  <si>
-    <t>Tried various forms of stopping event propagation. Can't seem to identify what is causing the scrolling and preventing the dialog opening.
-Replaced &lt;button&gt; elements with &lt;div&gt;'s and this seems to alleviate the issue in Firefox (page still scrolls, but at least the event handler is getting called), but IE still has issues.
-New Firebug features may help with this.</t>
-  </si>
-  <si>
-    <t>DP config DAO was using absolute path to templates folder. Now uses absolute path.
-Also fixed issue with dep config page not propagating error messages back to user.</t>
-  </si>
-  <si>
-    <t>kevobrie</t>
-  </si>
-  <si>
-    <t>Server editor panel should have "test connection" button</t>
-  </si>
-  <si>
-    <t>VCS module generator needs to have vcs connection entry in target module XML file</t>
-  </si>
-  <si>
-    <t>Plan editor for v2 of VCS module methods needs password field for vcsPassword argument.</t>
-  </si>
-  <si>
-    <t>Not sure how to implement this because entire plan table is written back to server every time a change to a plan step is made.</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>Data source module generator writes map type attributes without empty valuemap tag. Causes PDTool to throw error claiming the data source does not have a name.</t>
-  </si>
-  <si>
-    <t>Plan editor duplicates first row into new second row after dialog for second row is closed.</t>
-  </si>
-  <si>
-    <t>Plan editor check to see if module file has entries doesn't check to see if entry list is null</t>
-  </si>
-  <si>
-    <t>Added check</t>
-  </si>
-  <si>
-    <t>Rowid generator returned NaN if plan list had no entries.</t>
-  </si>
-  <si>
-    <t>Needed to modify generic attribute serializer to include empty valueMap tag.</t>
-  </si>
-  <si>
-    <t>Need to ship with default set of server attributes for 6.2. When user changes default server, GUI should regenerate attributes based on new default server.
-Need key event listener to update typeahead list as / chars are entered.
-Need tree-based chooser dialog</t>
-  </si>
-  <si>
-    <t>NPE thrown when plan editor attempts to interpolate unset variable in module path</t>
-  </si>
-  <si>
-    <t>New privilege editor does not set default setting for "update dependencies" field.</t>
-  </si>
-  <si>
-    <t>Apply copyright notices to all java source, HTML, and internal XML files.</t>
-  </si>
-  <si>
-    <t>Have checked into personal Git repository. Need to integrate into PDTool repository proper.</t>
-  </si>
-  <si>
-    <t>Need GUI server to call Admin API SOAP service such as getLicenses. Not trivial.</t>
-  </si>
-  <si>
-    <t>Apply updates for PDTool releases 5/28, 6/13, and 6/30</t>
-  </si>
-  <si>
-    <t>Execution plan editor shouldn't have default "server" parameter. Not all methods (vcs init) don't have server as a parameter and shouldn't output one.</t>
+Not sure if this really a good idea since it won't appear to the user that it's happening until the user refreshes the plan screen.</t>
+  </si>
+  <si>
+    <t>Same issue as #90</t>
+  </si>
+  <si>
+    <t>Added check for zero-length password string in StringUtils class.</t>
   </si>
 </sst>
 </file>
@@ -1012,11 +1039,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1124,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>18</v>
@@ -1136,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="45" hidden="1">
@@ -1156,7 +1183,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>18</v>
@@ -1191,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
@@ -1212,10 +1239,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
@@ -1236,7 +1263,7 @@
         <v>58</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1291,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>17</v>
@@ -1332,7 +1359,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>18</v>
@@ -1370,7 +1397,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>17</v>
@@ -1411,7 +1438,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>18</v>
@@ -1449,7 +1476,7 @@
         <v>20</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>18</v>
@@ -1487,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>18</v>
@@ -1601,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -1636,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>18</v>
@@ -1715,7 +1742,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>18</v>
@@ -1791,7 +1818,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
@@ -1864,7 +1891,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>17</v>
@@ -1905,7 +1932,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -1952,7 +1979,7 @@
         <v>9</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:13" hidden="1">
@@ -1975,7 +2002,7 @@
         <v>20</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -1987,7 +2014,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>63</v>
@@ -2028,7 +2055,7 @@
         <v>64</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30">
@@ -2089,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>18</v>
@@ -2104,7 +2131,7 @@
         <v>67</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="120">
@@ -2142,7 +2169,7 @@
         <v>69</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2200,7 +2227,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>18</v>
@@ -2238,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>18</v>
@@ -2273,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>18</v>
@@ -2311,7 +2338,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>18</v>
@@ -2346,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>18</v>
@@ -2361,7 +2388,7 @@
         <v>77</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="105">
@@ -2399,7 +2426,7 @@
         <v>79</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30" hidden="1">
@@ -2422,7 +2449,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>18</v>
@@ -2434,10 +2461,10 @@
         <v>9</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="45" hidden="1">
@@ -2460,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>18</v>
@@ -2472,10 +2499,10 @@
         <v>9</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="75">
@@ -2504,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="7">
         <v>41652</v>
@@ -2513,10 +2540,10 @@
         <v>9</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="30" hidden="1">
@@ -2539,7 +2566,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>18</v>
@@ -2551,10 +2578,10 @@
         <v>9</v>
       </c>
       <c r="L41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13" hidden="1">
@@ -2577,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>18</v>
@@ -2589,7 +2616,7 @@
         <v>9</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="30" hidden="1">
@@ -2612,7 +2639,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>18</v>
@@ -2624,10 +2651,10 @@
         <v>9</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="30" hidden="1">
@@ -2650,7 +2677,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>18</v>
@@ -2662,10 +2689,10 @@
         <v>9</v>
       </c>
       <c r="L44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="30" hidden="1">
@@ -2688,7 +2715,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>18</v>
@@ -2700,10 +2727,10 @@
         <v>9</v>
       </c>
       <c r="L45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2714,10 +2741,10 @@
         <v>41662</v>
       </c>
       <c r="C46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>11</v>
@@ -2738,7 +2765,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="45" hidden="1">
@@ -2773,10 +2800,10 @@
         <v>9</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:13" hidden="1">
@@ -2799,7 +2826,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>18</v>
@@ -2811,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" hidden="1">
@@ -2834,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>18</v>
@@ -2846,10 +2873,10 @@
         <v>9</v>
       </c>
       <c r="L49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:13" hidden="1">
@@ -2872,13 +2899,13 @@
         <v>20</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J50" s="7">
         <v>41668</v>
@@ -2887,10 +2914,10 @@
         <v>9</v>
       </c>
       <c r="L50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:13" hidden="1">
@@ -2913,13 +2940,13 @@
         <v>20</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" s="7">
         <v>41668</v>
@@ -2928,10 +2955,10 @@
         <v>9</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" hidden="1">
@@ -2954,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>18</v>
@@ -2966,7 +2993,7 @@
         <v>9</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="30">
@@ -3001,7 +3028,7 @@
         <v>9</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="30" hidden="1">
@@ -3024,13 +3051,13 @@
         <v>20</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J54" s="7">
         <v>41668</v>
@@ -3039,15 +3066,15 @@
         <v>9</v>
       </c>
       <c r="L54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" s="7">
         <v>41677</v>
@@ -3077,15 +3104,15 @@
         <v>9</v>
       </c>
       <c r="L55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B56" s="7">
         <v>41677</v>
@@ -3115,12 +3142,12 @@
         <v>9</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="30" hidden="1">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" s="7">
         <v>41677</v>
@@ -3138,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>18</v>
@@ -3150,15 +3177,15 @@
         <v>9</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="7">
         <v>41677</v>
@@ -3176,7 +3203,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>18</v>
@@ -3188,12 +3215,12 @@
         <v>9</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="7">
         <v>41677</v>
@@ -3223,7 +3250,7 @@
         <v>9</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:13" hidden="1">
@@ -3246,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>18</v>
@@ -3258,12 +3285,12 @@
         <v>9</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:13" hidden="1">
       <c r="A61" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" s="7">
         <v>41687</v>
@@ -3281,7 +3308,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>18</v>
@@ -3293,7 +3320,7 @@
         <v>9</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:13" hidden="1">
@@ -3328,7 +3355,7 @@
         <v>9</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="30">
@@ -3363,10 +3390,10 @@
         <v>9</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:13" hidden="1">
@@ -3389,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>18</v>
@@ -3401,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:13" hidden="1">
@@ -3424,7 +3451,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>18</v>
@@ -3436,7 +3463,7 @@
         <v>9</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:13" hidden="1">
@@ -3459,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>18</v>
@@ -3471,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:13" hidden="1">
@@ -3494,7 +3521,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
@@ -3506,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:13" hidden="1">
@@ -3541,7 +3568,7 @@
         <v>9</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:13" hidden="1">
@@ -3576,10 +3603,10 @@
         <v>9</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="30" hidden="1">
@@ -3614,10 +3641,10 @@
         <v>9</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="135">
@@ -3652,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:13" hidden="1">
@@ -3678,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>18</v>
@@ -3690,7 +3717,7 @@
         <v>9</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:13" hidden="1">
@@ -3713,7 +3740,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H73" s="3" t="s">
         <v>18</v>
@@ -3725,7 +3752,7 @@
         <v>9</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:13" hidden="1">
@@ -3748,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>18</v>
@@ -3760,7 +3787,7 @@
         <v>9</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:13" hidden="1">
@@ -3783,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>18</v>
@@ -3795,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="75" hidden="1">
@@ -3818,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>17</v>
@@ -3830,15 +3857,15 @@
         <v>9</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="30">
       <c r="A77" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" s="7">
         <v>41752</v>
@@ -3868,10 +3895,10 @@
         <v>9</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:13" hidden="1">
@@ -3894,7 +3921,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>18</v>
@@ -3906,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="30">
@@ -3941,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="L79" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M79" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:13" hidden="1">
@@ -3967,7 +3994,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>18</v>
@@ -3979,10 +4006,10 @@
         <v>9</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="30" hidden="1">
@@ -4005,7 +4032,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>18</v>
@@ -4017,10 +4044,10 @@
         <v>9</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:13" hidden="1">
@@ -4043,7 +4070,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>18</v>
@@ -4055,10 +4082,10 @@
         <v>9</v>
       </c>
       <c r="L82" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:13" hidden="1">
@@ -4081,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>18</v>
@@ -4093,7 +4120,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:13" hidden="1">
@@ -4116,7 +4143,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>18</v>
@@ -4128,7 +4155,7 @@
         <v>9</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:13" hidden="1">
@@ -4151,7 +4178,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>18</v>
@@ -4163,10 +4190,10 @@
         <v>9</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
@@ -4183,22 +4210,22 @@
         <v>11</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J86" s="7">
-        <v>41822</v>
+        <v>41842</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="30" hidden="1">
@@ -4221,7 +4248,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>18</v>
@@ -4233,11 +4260,230 @@
         <v>9</v>
       </c>
       <c r="L87" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" hidden="1">
+      <c r="A88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="7">
+        <v>41856</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="H88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" s="7">
+        <v>41856</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="7">
+        <v>41856</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="7">
+        <v>41856</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" hidden="1">
+      <c r="A90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="7">
+        <v>41856</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" s="7">
+        <v>41856</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="30" hidden="1">
+      <c r="A91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7">
+        <v>41856</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" s="7">
+        <v>41856</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="M91" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="7">
+        <v>41856</v>
+      </c>
+      <c r="C92" s="3">
+        <v>2</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="7">
+        <v>41856</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" hidden="1">
+      <c r="A93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="7">
+        <v>41856</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" s="7">
+        <v>41856</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M93" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:I87">
+  <autoFilter ref="E1:I93">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="720" windowWidth="32620" windowHeight="18720" tabRatio="500"/>
+    <workbookView xWindow="5620" yWindow="720" windowWidth="32620" windowHeight="18720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="180">
   <si>
     <t>Reported By</t>
   </si>
@@ -586,6 +586,10 @@
   </si>
   <si>
     <t>Added check for zero-length password string in StringUtils class.</t>
+  </si>
+  <si>
+    <t>Only an issue with edited deployment profile files.
+Implemented workaround of writing to temp file and copying results to deployment profile file. Not happy with it, but it works for now.</t>
   </si>
 </sst>
 </file>
@@ -598,6 +602,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1042,8 +1047,8 @@
   <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L92" sqref="L92"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4298,7 +4303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" ht="45" hidden="1">
       <c r="A89" s="3" t="s">
         <v>9</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>169</v>
@@ -4332,6 +4337,9 @@
       <c r="L89" s="4" t="s">
         <v>170</v>
       </c>
+      <c r="M89" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="3" t="s">
@@ -4406,7 +4414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
@@ -4423,7 +4431,7 @@
         <v>40</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>169</v>
@@ -4439,9 +4447,6 @@
       </c>
       <c r="L92" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:13" hidden="1">

--- a/docs/pdtoolgui_bug_list.xlsx
+++ b/docs/pdtoolgui_bug_list.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$94</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="183">
   <si>
     <t>Reported By</t>
   </si>
@@ -590,6 +590,15 @@
   <si>
     <t>Only an issue with edited deployment profile files.
 Implemented workaround of writing to temp file and copying results to deployment profile file. Not happy with it, but it works for now.</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>ExecutePDTool class throws NPE during VCS initialization</t>
+  </si>
+  <si>
+    <t>Plan path not set. Setting plan name to "vcsinit" when plan path is null.</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1053,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M93" sqref="M93"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4487,8 +4496,46 @@
         <v>177</v>
       </c>
     </row>
+    <row r="94" spans="1:13" ht="30" hidden="1">
+      <c r="A94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="7">
+        <v>41880</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="7">
+        <v>41880</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M94" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="E1:I93">
+  <autoFilter ref="E1:I94">
     <filterColumn colId="1">
       <filters>
         <filter val="New"/>
